--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/93_AreaChartWithoutCategories.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/93_AreaChartWithoutCategories.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="Ra9febeb267054bcc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Growth Data" sheetId="1" r:id="R5ed553cc98a94262"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,7 +168,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc27f195521ce4858"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R84e697176609417a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -231,6 +231,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1edf3b1204e140ee"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18df49cf0ccf4f77"/>
 </x:worksheet>
 </file>